--- a/add_user.xlsx
+++ b/add_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbsherzogenaurachde-my.sharepoint.com/personal/m_karatas_sbs-herzogenaurach_de/Documents/powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0716F5A1-E57C-43DD-A4C9-47794EA96233}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5CA343-9D24-4018-846F-2E35A5D09E20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">

--- a/add_user.xlsx
+++ b/add_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbsherzogenaurachde-my.sharepoint.com/personal/m_karatas_sbs-herzogenaurach_de/Documents/powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5CA343-9D24-4018-846F-2E35A5D09E20}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B901C2-ECA4-4796-A6EA-DBD566046D98}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
+    <workbookView xWindow="2292" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="herzo_student" sheetId="1" r:id="rId1"/>
@@ -51,28 +51,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>m q</t>
-  </si>
-  <si>
-    <t>wwäü kj</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
-    <t>ääqü</t>
-  </si>
-  <si>
-    <t>we pöä</t>
-  </si>
-  <si>
     <t>givenname</t>
   </si>
   <si>
     <t>givenname_raw</t>
   </si>
   <si>
-    <t>abcdef!12345</t>
+    <t>test1gn</t>
+  </si>
+  <si>
+    <t>test1sn</t>
+  </si>
+  <si>
+    <t>test2gn</t>
+  </si>
+  <si>
+    <t>test2sn</t>
+  </si>
+  <si>
+    <t>Q121ghhjg!a</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D981D5F-AC84-3E40-A30D-722F2967ECA9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -482,25 +482,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>m-q</v>
+        <v>test1gn</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>wwaeue-kj</v>
+        <v>test1sn</v>
       </c>
       <c r="F2" t="str">
         <f>D2&amp;"."&amp;E2&amp;"@sbs-herzogenaurach.de"</f>
-        <v>m-q.wwaeue-kj@sbs-herzogenaurach.de</v>
+        <v>test1gn.test1sn@sbs-herzogenaurach.de</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -508,25 +508,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>aeaeque</v>
+        <v>test2gn</v>
       </c>
       <c r="E3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>we-poeae</v>
+        <v>test2sn</v>
       </c>
       <c r="F3" t="str">
         <f>D3&amp;"."&amp;E3&amp;"@sbs-herzogenaurach.de"</f>
-        <v>aeaeque.we-poeae@sbs-herzogenaurach.de</v>
+        <v>test2gn.test2sn@sbs-herzogenaurach.de</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/add_user.xlsx
+++ b/add_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbsherzogenaurachde-my.sharepoint.com/personal/m_karatas_sbs-herzogenaurach_de/Documents/powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B901C2-ECA4-4796-A6EA-DBD566046D98}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FEDDC24-9D9E-4ACA-9F29-E6618859FF21}"/>
   <bookViews>
-    <workbookView xWindow="2292" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
+    <workbookView xWindow="1128" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="herzo_student" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,19 @@
     <t>givenname_raw</t>
   </si>
   <si>
-    <t>test1gn</t>
-  </si>
-  <si>
     <t>test1sn</t>
   </si>
   <si>
-    <t>test2gn</t>
-  </si>
-  <si>
     <t>test2sn</t>
   </si>
   <si>
     <t>Q121ghhjg!a</t>
+  </si>
+  <si>
+    <t>test1gn hh</t>
+  </si>
+  <si>
+    <t>test2gnöü</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D981D5F-AC84-3E40-A30D-722F2967ECA9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -482,17 +482,17 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test1gn</v>
+        <v>test1gn-hh</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
@@ -500,25 +500,25 @@
       </c>
       <c r="F2" t="str">
         <f>D2&amp;"."&amp;E2&amp;"@sbs-herzogenaurach.de"</f>
-        <v>test1gn.test1sn@sbs-herzogenaurach.de</v>
+        <v>test1gn-hh.test1sn@sbs-herzogenaurach.de</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test2gn</v>
+        <v>test2gnoeue</v>
       </c>
       <c r="E3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
@@ -526,10 +526,10 @@
       </c>
       <c r="F3" t="str">
         <f>D3&amp;"."&amp;E3&amp;"@sbs-herzogenaurach.de"</f>
-        <v>test2gn.test2sn@sbs-herzogenaurach.de</v>
+        <v>test2gnoeue.test2sn@sbs-herzogenaurach.de</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/add_user.xlsx
+++ b/add_user.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbsherzogenaurachde-my.sharepoint.com/personal/m_karatas_sbs-herzogenaurach_de/Documents/powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FEDDC24-9D9E-4ACA-9F29-E6618859FF21}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{E0778D79-6285-9B40-9ED3-2C152ABFAF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E339CE6-6AEF-48AD-B03E-D7B6BF158E74}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
+    <workbookView xWindow="3204" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C622BD15-A366-A447-B563-E2CD51E59CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="herzo_student" sheetId="1" r:id="rId1"/>
+    <sheet name="hoe_student" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>surname_raw</t>
   </si>
@@ -51,35 +52,35 @@
     <t>password</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
     <t>givenname</t>
   </si>
   <si>
     <t>givenname_raw</t>
   </si>
   <si>
-    <t>test1sn</t>
-  </si>
-  <si>
-    <t>test2sn</t>
-  </si>
-  <si>
-    <t>Q121ghhjg!a</t>
-  </si>
-  <si>
-    <t>test1gn hh</t>
-  </si>
-  <si>
-    <t>test2gnöü</t>
+    <t>lkjlkj</t>
+  </si>
+  <si>
+    <t>kjhk test</t>
+  </si>
+  <si>
+    <t>test1a</t>
+  </si>
+  <si>
+    <t>test1b</t>
+  </si>
+  <si>
+    <t>test-ka</t>
+  </si>
+  <si>
+    <t>1234abc!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +92,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,10 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D981D5F-AC84-3E40-A30D-722F2967ECA9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -459,7 +470,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -468,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -481,55 +492,98 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test1gn-hh</v>
+        <v>test1a</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test1sn</v>
+        <v>test1b</v>
       </c>
       <c r="F2" t="str">
-        <f>D2&amp;"."&amp;E2&amp;"@sbs-herzogenaurach.de"</f>
-        <v>test1gn-hh.test1sn@sbs-herzogenaurach.de</v>
+        <f>LOWER(D2&amp;"."&amp;E2&amp;"@sbs-herzogenaurach.de")</f>
+        <v>test1a.test1b@sbs-herzogenaurach.de</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA53B52-A0EE-4092-9E69-9C898AAFA802}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="35.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
+        <v>kjhk-test</v>
+      </c>
+      <c r="E2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
+        <v>lkjlkj</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LOWER(D2&amp;"."&amp;E2&amp;"@sbs-hoechstadt.de")</f>
+        <v>kjhk-test.lkjlkj@sbs-hoechstadt.de</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test2gnoeue</v>
-      </c>
-      <c r="E3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"Ä","Ae"),"Ö","Oe"),"Ü","Ue"),"ß","ss"),"ä","ae"),"ö","oe"),"ü","ue")," ","-")</f>
-        <v>test2sn</v>
-      </c>
-      <c r="F3" t="str">
-        <f>D3&amp;"."&amp;E3&amp;"@sbs-herzogenaurach.de"</f>
-        <v>test2gnoeue.test2sn@sbs-herzogenaurach.de</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
